--- a/soberano/test_cases/material_expenses_and_inventory_operations_log.xlsx
+++ b/soberano/test_cases/material_expenses_and_inventory_operations_log.xlsx
@@ -91,7 +91,7 @@
     <numFmt numFmtId="165" formatCode="0.00000000"/>
     <numFmt numFmtId="166" formatCode="0.000000000000000"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -119,11 +119,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -175,7 +170,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -212,10 +207,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -247,11 +238,11 @@
   </sheetPr>
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J4" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N28" activeCellId="0" sqref="N28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I10" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I19" activeCellId="0" sqref="19:19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.45"/>
@@ -1119,7 +1110,7 @@
       <c r="G21" s="7" t="n">
         <v>110.231221009189</v>
       </c>
-      <c r="H21" s="9" t="n">
+      <c r="H21" s="5" t="n">
         <f aca="false">10000*0.0000022046</f>
         <v>0.022046</v>
       </c>
@@ -1417,14 +1408,14 @@
   </sheetPr>
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J5" activeCellId="0" sqref="J5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M3" activeCellId="1" sqref="19:19 M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="13.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.15"/>
@@ -1445,36 +1436,36 @@
       <c r="C1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10" t="s">
+      <c r="E1" s="9"/>
+      <c r="F1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10" t="s">
+      <c r="G1" s="9"/>
+      <c r="H1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10" t="s">
+      <c r="I1" s="9"/>
+      <c r="J1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10" t="s">
+      <c r="K1" s="9"/>
+      <c r="L1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10" t="s">
+      <c r="M1" s="9"/>
+      <c r="N1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="10"/>
+      <c r="O1" s="9"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="11" t="s">
+      <c r="D2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="0" t="s">
@@ -1483,28 +1474,28 @@
       <c r="G2" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" s="11" t="s">
+      <c r="H2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1512,48 +1503,48 @@
       <c r="A3" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="D3" s="12" t="n">
+      <c r="D3" s="11" t="n">
         <f aca="false">1000*0.453592</f>
         <v>453.592</v>
       </c>
       <c r="E3" s="8" t="n">
         <v>8409.79961114984</v>
       </c>
-      <c r="F3" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="12" t="n">
+      <c r="F3" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="11" t="n">
         <v>1000000</v>
       </c>
-      <c r="M3" s="12" t="n">
+      <c r="M3" s="11" t="n">
         <f aca="false">(mw10!L19*mw10!M19)/L3</f>
         <v>0.500000000001</v>
       </c>
-      <c r="N3" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" s="12" t="n">
+      <c r="N3" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" s="11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1561,50 +1552,50 @@
       <c r="A4" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="D4" s="12" t="n">
+      <c r="D4" s="11" t="n">
         <f aca="false">D3+1</f>
         <v>454.592</v>
       </c>
-      <c r="E4" s="12" t="n">
+      <c r="E4" s="11" t="n">
         <f aca="false">(D3*E3)/D4</f>
         <v>8391.29994637098</v>
       </c>
-      <c r="F4" s="12" t="n">
+      <c r="F4" s="11" t="n">
         <f aca="false">1000*1000000</f>
         <v>1000000000</v>
       </c>
-      <c r="G4" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="12" t="n">
+      <c r="G4" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="11" t="n">
         <f aca="false">1000*453592</f>
         <v>453592000</v>
       </c>
-      <c r="K4" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="12" t="n">
+      <c r="K4" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="11" t="n">
         <v>1000000</v>
       </c>
-      <c r="M4" s="12" t="n">
+      <c r="M4" s="11" t="n">
         <v>0.500000000001</v>
       </c>
-      <c r="N4" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="12" t="n">
+      <c r="N4" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1612,73 +1603,73 @@
       <c r="A5" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="D5" s="12" t="n">
+      <c r="D5" s="11" t="n">
         <v>454.592</v>
       </c>
-      <c r="E5" s="12" t="n">
+      <c r="E5" s="11" t="n">
         <v>8391.29994637098</v>
       </c>
-      <c r="F5" s="12" t="n">
+      <c r="F5" s="11" t="n">
         <v>1000000000</v>
       </c>
-      <c r="G5" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="12" t="n">
+      <c r="G5" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="11" t="n">
         <f aca="false">1000*2.2046226218</f>
         <v>2204.6226218</v>
       </c>
-      <c r="I5" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="12" t="n">
+      <c r="I5" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="11" t="n">
         <v>453592000</v>
       </c>
-      <c r="K5" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" s="12" t="n">
+      <c r="K5" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="11" t="n">
         <v>1000000</v>
       </c>
-      <c r="M5" s="12" t="n">
+      <c r="M5" s="11" t="n">
         <v>0.500000000001</v>
       </c>
-      <c r="N5" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" s="12" t="n">
+      <c r="N5" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="11"/>
+      <c r="B6" s="10"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="11"/>
+      <c r="B7" s="10"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="11"/>
+      <c r="B8" s="10"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="11"/>
+      <c r="B9" s="10"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="11"/>
+      <c r="B10" s="10"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="11"/>
+      <c r="B12" s="10"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="11"/>
+      <c r="B13" s="10"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="11"/>
+      <c r="B14" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1707,10 +1698,10 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J6" activeCellId="0" sqref="J6"/>
+      <selection pane="topLeft" activeCell="J6" activeCellId="1" sqref="19:19 J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.08"/>
@@ -1718,7 +1709,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="18.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="18.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="14.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="11.11"/>
   </cols>
@@ -1733,66 +1724,66 @@
       <c r="C1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10" t="s">
+      <c r="E1" s="9"/>
+      <c r="F1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10" t="s">
+      <c r="G1" s="9"/>
+      <c r="H1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10" t="s">
+      <c r="I1" s="9"/>
+      <c r="J1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10" t="s">
+      <c r="K1" s="9"/>
+      <c r="L1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10" t="s">
+      <c r="M1" s="9"/>
+      <c r="N1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="10"/>
+      <c r="O1" s="9"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" s="11" t="s">
+      <c r="D2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1800,46 +1791,46 @@
       <c r="A3" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="D3" s="12" t="n">
+      <c r="D3" s="11" t="n">
         <v>-1000</v>
       </c>
-      <c r="E3" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="12" t="n">
+      <c r="E3" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="11" t="n">
         <v>-1000</v>
       </c>
-      <c r="M3" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" s="12" t="n">
+      <c r="M3" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" s="11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1847,49 +1838,49 @@
       <c r="A4" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="D4" s="12" t="n">
+      <c r="D4" s="11" t="n">
         <f aca="false">D3-1000*0.453592</f>
         <v>-1453.592</v>
       </c>
-      <c r="E4" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="12" t="n">
+      <c r="E4" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="11" t="n">
         <f aca="false">-1000*1000</f>
         <v>-1000000</v>
       </c>
-      <c r="G4" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="12" t="n">
+      <c r="G4" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="11" t="n">
         <f aca="false">-1000*28349.5</f>
         <v>-28349500</v>
       </c>
-      <c r="K4" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="12" t="n">
+      <c r="K4" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="11" t="n">
         <v>-1000</v>
       </c>
-      <c r="M4" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="12" t="n">
+      <c r="M4" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1897,49 +1888,49 @@
       <c r="A5" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="D5" s="12" t="n">
+      <c r="D5" s="11" t="n">
         <f aca="false">D4-1000/1000</f>
         <v>-1454.592</v>
       </c>
-      <c r="E5" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="12" t="n">
+      <c r="E5" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="11" t="n">
         <f aca="false">F4-1000*1000000</f>
         <v>-1001000000</v>
       </c>
-      <c r="G5" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="12" t="n">
+      <c r="G5" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="11" t="n">
         <f aca="false">J4-1000*453592</f>
         <v>-481941500</v>
       </c>
-      <c r="K5" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" s="12" t="n">
+      <c r="K5" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="11" t="n">
         <v>-1000</v>
       </c>
-      <c r="M5" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" s="12" t="n">
+      <c r="M5" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1947,69 +1938,69 @@
       <c r="A6" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="D6" s="12" t="n">
+      <c r="D6" s="11" t="n">
         <v>-1454.592</v>
       </c>
-      <c r="E6" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="12" t="n">
+      <c r="E6" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="11" t="n">
         <v>-1001000000</v>
       </c>
-      <c r="G6" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="12" t="n">
+      <c r="G6" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="11" t="n">
         <v>-10000</v>
       </c>
-      <c r="I6" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="12" t="n">
+      <c r="I6" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="11" t="n">
         <v>-481941500</v>
       </c>
-      <c r="K6" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" s="12" t="n">
+      <c r="K6" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="11" t="n">
         <v>-1000</v>
       </c>
-      <c r="M6" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="12" t="n">
+      <c r="M6" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="11"/>
+      <c r="B7" s="10"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="11"/>
+      <c r="B8" s="10"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="11"/>
+      <c r="B9" s="10"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="11"/>
+      <c r="B10" s="10"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="11"/>
+      <c r="B12" s="10"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="11"/>
+      <c r="B13" s="10"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="11"/>
+      <c r="B14" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2038,10 +2029,10 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L9" activeCellId="0" sqref="L9"/>
+      <selection pane="topLeft" activeCell="L9" activeCellId="1" sqref="19:19 L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.22"/>
@@ -2062,66 +2053,66 @@
       <c r="C1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10" t="s">
+      <c r="E1" s="9"/>
+      <c r="F1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10" t="s">
+      <c r="G1" s="9"/>
+      <c r="H1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10" t="s">
+      <c r="I1" s="9"/>
+      <c r="J1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10" t="s">
+      <c r="K1" s="9"/>
+      <c r="L1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10" t="s">
+      <c r="M1" s="9"/>
+      <c r="N1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="10"/>
+      <c r="O1" s="9"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" s="11" t="s">
+      <c r="D2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2129,46 +2120,46 @@
       <c r="A3" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="D3" s="12" t="n">
+      <c r="D3" s="11" t="n">
         <v>1000</v>
       </c>
-      <c r="E3" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="12" t="n">
+      <c r="E3" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="11" t="n">
         <v>1000</v>
       </c>
-      <c r="M3" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" s="12" t="n">
+      <c r="M3" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" s="11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2176,46 +2167,46 @@
       <c r="A4" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="D4" s="12" t="n">
+      <c r="D4" s="11" t="n">
         <v>1000</v>
       </c>
-      <c r="E4" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="12" t="n">
+      <c r="E4" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="11" t="n">
         <v>1000</v>
       </c>
-      <c r="M4" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="12" t="n">
+      <c r="M4" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2223,47 +2214,47 @@
       <c r="A5" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="D5" s="12" t="n">
+      <c r="D5" s="11" t="n">
         <v>1000</v>
       </c>
-      <c r="E5" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="12" t="n">
+      <c r="E5" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="11" t="n">
         <f aca="false">-10000*0.0000022046</f>
         <v>-0.022046</v>
       </c>
-      <c r="I5" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" s="12" t="n">
+      <c r="I5" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="11" t="n">
         <v>1000</v>
       </c>
-      <c r="M5" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" s="12" t="n">
+      <c r="M5" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2271,47 +2262,47 @@
       <c r="A6" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="D6" s="12" t="n">
+      <c r="D6" s="11" t="n">
         <v>1000</v>
       </c>
-      <c r="E6" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="12" t="n">
+      <c r="E6" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="11" t="n">
         <f aca="false">H5+10000*0.00220462</f>
         <v>22.024154</v>
       </c>
-      <c r="I6" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" s="12" t="n">
+      <c r="I6" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="11" t="n">
         <v>1000</v>
       </c>
-      <c r="M6" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="12" t="n">
+      <c r="M6" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2319,48 +2310,48 @@
       <c r="A7" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="D7" s="12" t="n">
+      <c r="D7" s="11" t="n">
         <f aca="false">D6-1000/1000000</f>
         <v>999.999</v>
       </c>
-      <c r="E7" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="12" t="n">
+      <c r="E7" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="11" t="n">
         <v>22.024154</v>
       </c>
-      <c r="I7" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="12" t="n">
+      <c r="I7" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="11" t="n">
         <f aca="false">L6-1000000</f>
         <v>-999000</v>
       </c>
-      <c r="M7" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" s="12" t="n">
+      <c r="M7" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2368,47 +2359,47 @@
       <c r="A8" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="D8" s="12" t="n">
+      <c r="D8" s="11" t="n">
         <v>999.999</v>
       </c>
-      <c r="E8" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="12" t="n">
+      <c r="E8" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="11" t="n">
         <f aca="false">H7-1000*2.2046226218</f>
         <v>-2182.5984678</v>
       </c>
-      <c r="I8" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" s="12" t="n">
+      <c r="I8" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="11" t="n">
         <v>-999000</v>
       </c>
-      <c r="M8" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" s="12" t="n">
+      <c r="M8" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2416,61 +2407,61 @@
       <c r="A9" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="D9" s="12" t="n">
+      <c r="D9" s="11" t="n">
         <v>999.999</v>
       </c>
-      <c r="E9" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="12" t="n">
+      <c r="E9" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="11" t="n">
         <f aca="false">H8+10000</f>
         <v>7817.4015322</v>
       </c>
-      <c r="I9" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="12" t="n">
+      <c r="I9" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="11" t="n">
         <v>-999000</v>
       </c>
-      <c r="M9" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" s="12" t="n">
+      <c r="M9" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="11"/>
+      <c r="B10" s="10"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="11"/>
+      <c r="B12" s="10"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="11"/>
+      <c r="B13" s="10"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="11"/>
+      <c r="B14" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="6">
